--- a/Documents/TODO_list.xlsx
+++ b/Documents/TODO_list.xlsx
@@ -111,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -395,12 +395,12 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -476,23 +476,32 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>43470</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>5.2</v>
+      </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>5.3</v>
+      </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>5.4</v>
+      </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
